--- a/biology/Botanique/Thysanotus_tuberosus/Thysanotus_tuberosus.xlsx
+++ b/biology/Botanique/Thysanotus_tuberosus/Thysanotus_tuberosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thysanothus tuberosus est une espèce de plantes vivace à fleurs de la famille des Asparagaceae endémique en Australie. Le nom de l'espèce se réfère à ses grosses racines comestibles[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thysanothus tuberosus est une espèce de plantes vivace à fleurs de la famille des Asparagaceae endémique en Australie. Le nom de l'espèce se réfère à ses grosses racines comestibles.
 Les feuilles sont allongées, rondes à l'extrémité haute. Elle atteint de 20 cm à 60 cm de haut.
-Elle pousse dans une grande variété de situations, de zones semi-arides du sud-est de l'Australie aux zones côtières recevant plus de 1 300 mm de pluie par an. On la trouve souvent en rase campagne, dans les landes ou les forêts sclérophylles sèches[3].
+Elle pousse dans une grande variété de situations, de zones semi-arides du sud-est de l'Australie aux zones côtières recevant plus de 1 300 mm de pluie par an. On la trouve souvent en rase campagne, dans les landes ou les forêts sclérophylles sèches.
 Elle fleurit de septembre à avril. Les trois tépales sont violets, bordés de franges et ne durent que pendant une journée. Ce sont des fleurs sauvages d'une beauté frappante.
 </t>
         </is>
@@ -514,13 +526,15 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (12 nov. 2010)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (12 nov. 2010) :
 Thysanotus tuberosus R.Br. (1810)
 sous-espèce Thysanotus tuberosus subsp. parviflorus (Benth.) Brittan (1981)
 sous-espèce Thysanotus tuberosus subsp. tuberosus
-Les tépales sont un peu plus longs et plus larges dans T. t. subsp. tuberosus, atteignant de 10 à 19 mm de long et environ 10 mm de large. Pour T. t. subsp. parviflorus, les anthères sont plus petits, et droits à légèrement incurvés[3].
+Les tépales sont un peu plus longs et plus larges dans T. t. subsp. tuberosus, atteignant de 10 à 19 mm de long et environ 10 mm de large. Pour T. t. subsp. parviflorus, les anthères sont plus petits, et droits à légèrement incurvés.
 </t>
         </is>
       </c>
